--- a/REGULAR/OJT/VERGARA, ANACLETA.xlsx
+++ b/REGULAR/OJT/VERGARA, ANACLETA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>6/15-16/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2695,7 +2698,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3073,12 +3076,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K138"/>
+  <dimension ref="A2:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A92" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A101" activePane="bottomLeft"/>
       <selection activeCell="H8" sqref="H8"/>
-      <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
+      <selection pane="bottomLeft" activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,7 +3244,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3251,7 +3254,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5477,13 +5480,15 @@
       <c r="B111" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39">
         <v>1</v>
@@ -5499,13 +5504,15 @@
         <v>45170</v>
       </c>
       <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
@@ -5516,32 +5523,42 @@
       <c r="A113" s="40">
         <v>45200</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+      <c r="B113" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H113" s="39">
+        <v>1</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="50">
+        <v>45206</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45231</v>
       </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
@@ -5552,7 +5569,9 @@
       <c r="A115" s="40">
         <v>45261</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
@@ -5561,14 +5580,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="39"/>
+      <c r="H115" s="39">
+        <v>1</v>
+      </c>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="50">
+        <v>45261</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>45292</v>
+      <c r="A116" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5586,7 +5609,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5604,7 +5627,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5622,7 +5645,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5640,7 +5663,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5658,7 +5681,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5676,7 +5699,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5694,7 +5717,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5712,7 +5735,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5730,7 +5753,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5748,7 +5771,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5766,7 +5789,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5784,7 +5807,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5802,7 +5825,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5820,7 +5843,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5837,7 +5860,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>45717</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5949,20 +5974,36 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="43"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="42" t="str">
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H138" s="43"/>
+      <c r="H138" s="39"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="15"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="41"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="43"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6126,7 +6167,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
